--- a/src/assets/zxsj_mb/zxtb_k053_gsprc.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k053_gsprc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7280"/>
+    <workbookView windowWidth="21000" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>年度</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>2018-08-08</t>
+  </si>
+  <si>
+    <t>其他说明</t>
   </si>
   <si>
     <t>李四</t>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -110,6 +113,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -117,7 +127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +136,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,39 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +202,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -217,35 +226,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -262,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,11 +489,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,45 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,137 +591,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,9 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,15 +1065,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.91666666666667" customWidth="1"/>
     <col min="2" max="2" width="11.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="39.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="65.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="20.4166666666667" customWidth="1"/>
   </cols>
@@ -1108,25 +1108,31 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:6">
       <c r="A3" s="2">
         <v>2018</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1135,32 +1141,38 @@
         <v>2018</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" ht="26" spans="1:6">
+    <row r="5" ht="24" spans="1:6">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
